--- a/Experimento para trabajar.xlsx
+++ b/Experimento para trabajar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferce\Desktop\Cursos\Estadística-U\Tercero\Experimentos2\Proyecto final mediciones repetidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferce\Desktop\Cursos\Estadística-U\Tercero\Experimentos2\Proyecto final mediciones repetidas\proyecto_medidas_repetiras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FB479-9542-4028-A737-A211D2463367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D46F16-C9BA-4AF0-B525-44DABED199F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2640" windowWidth="15375" windowHeight="7965" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="471">
   <si>
     <t>H</t>
   </si>
@@ -1424,16 +1424,22 @@
     <t>Medida</t>
   </si>
   <si>
-    <t>DS-HMA</t>
-  </si>
-  <si>
-    <t>WW-HMA</t>
-  </si>
-  <si>
-    <t>DS+HMA</t>
-  </si>
-  <si>
-    <t>WW+HMA</t>
+    <t>HMA-</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>HMA+</t>
+  </si>
+  <si>
+    <t>Hongos</t>
+  </si>
+  <si>
+    <t>Riego</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H1019"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -3296,180 +3302,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK1000"/>
+  <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="11.5"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="24" width="9.375" customWidth="1"/>
-    <col min="25" max="26" width="14" customWidth="1"/>
-    <col min="27" max="29" width="9.375" customWidth="1"/>
-    <col min="30" max="31" width="10.5" customWidth="1"/>
-    <col min="32" max="37" width="9.375" customWidth="1"/>
-    <col min="38" max="1026" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="25" width="9.375" customWidth="1"/>
+    <col min="26" max="27" width="14" customWidth="1"/>
+    <col min="28" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="32" width="10.5" customWidth="1"/>
+    <col min="33" max="38" width="9.375" customWidth="1"/>
+    <col min="39" max="1027" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8">
-        <f t="shared" ref="H2:H7" si="0">(G2-C2)/(85-21)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I7" si="0">(H2-D2)/(85-21)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2:N7" si="1">(M2-I2)/(85-21)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="8"/>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" ref="O2:O7" si="1">(N2-J2)/(85-21)</f>
+        <v>0</v>
+      </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -3481,626 +3492,644 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="e">
-        <f t="shared" ref="AC2:AC41" si="2">X2/V2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD2" s="8">
-        <f t="shared" ref="AD2:AD41" si="3">SUM(X2,T2,P2)</f>
-        <v>0</v>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="e">
+        <f t="shared" ref="AD2:AD41" si="2">Y2/W2</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE2" s="8">
-        <f t="shared" ref="AE2:AE41" si="4">SUM(P2,X2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8" t="e">
-        <f t="shared" ref="AF2:AF41" si="5">Y2/AC2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8" t="e">
-        <f t="shared" ref="AH2:AH41" si="6">AF2*AG2</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AE2:AE41" si="3">SUM(Y2,U2,Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f t="shared" ref="AF2:AF41" si="4">SUM(Q2,Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8" t="e">
+        <f t="shared" ref="AG2:AG41" si="5">Z2/AD2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH2" s="8"/>
       <c r="AI2" s="8" t="e">
-        <f t="shared" ref="AI2:AI41" si="7">T2/AE2</f>
+        <f t="shared" ref="AI2:AI41" si="6">AG2*AH2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ2" s="8" t="e">
-        <f t="shared" ref="AJ2:AJ41" si="8">P2/AD2</f>
+        <f t="shared" ref="AJ2:AJ41" si="7">U2/AF2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="8" t="e">
-        <f>((W2-X2)/(U2-X2))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+        <f t="shared" ref="AK2:AK41" si="8">Q2/AE2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL2" s="8" t="e">
+        <f>((X2-Y2)/(V2-Y2))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <f t="shared" si="0"/>
         <v>6.2500000000000056E-3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6</v>
       </c>
       <c r="K3" s="11">
         <v>6</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11">
+      <c r="L3" s="11">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11">
         <v>10</v>
       </c>
-      <c r="N3" s="13">
+      <c r="O3" s="13">
         <f t="shared" si="1"/>
         <v>0.1171875</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="11">
+      <c r="W3" s="11">
         <v>1</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="11">
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="11">
         <f t="shared" si="2"/>
         <v>0.152</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AE3" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AF3" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AG3" s="11">
         <f t="shared" si="5"/>
         <v>256.80921052631578</v>
       </c>
-      <c r="AG3" s="14" t="e">
-        <f>X3/AD3</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH3" s="14" t="e">
+        <f>Y3/AE3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI3" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI3" s="14" t="e">
+      <c r="AJ3" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ3" s="14" t="e">
+      <c r="AK3" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK3" s="11">
-        <f>(W3/-X3)/(U3-Y6)</f>
+      <c r="AL3" s="11">
+        <f>(X3/-Y3)/(V3-Z6)</f>
         <v>-5.5157552231989957</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>17</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>4.8437499999999994E-2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11">
+      <c r="M4" s="12"/>
+      <c r="N4" s="11">
         <v>9</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <f t="shared" si="1"/>
         <v>0.1015625</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="V4" s="11">
+      <c r="W4" s="11">
         <v>3</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15">
         <v>43756</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AD4" s="11">
         <f t="shared" si="2"/>
         <v>7.7333333333333337E-2</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AE4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AF4" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AG4" s="11">
         <f t="shared" si="5"/>
         <v>688.42241379310337</v>
       </c>
-      <c r="AG4" s="14" t="e">
-        <f>X4/AD4</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH4" s="14" t="e">
+        <f>Y4/AE4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="14" t="e">
+      <c r="AJ4" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="14" t="e">
+      <c r="AK4" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="11">
-        <f t="shared" ref="AK4:AK41" si="9">(W4-X4)/(U4-X4)</f>
+      <c r="AL4" s="11">
+        <f t="shared" ref="AL4:AL41" si="9">(X4-Y4)/(V4-Y4)</f>
         <v>1.1197097944377268</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" s="17">
-        <v>14</v>
       </c>
       <c r="E5" s="17">
         <v>14</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="17">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="18">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>2.0312499999999983E-2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="J5" s="17">
         <v>2</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="L5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
         <f t="shared" si="1"/>
         <v>-3.125E-2</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="R5" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="17">
+      <c r="S5" s="17">
         <v>7</v>
       </c>
-      <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="17">
-        <v>0</v>
-      </c>
-      <c r="W5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AC5" s="19">
         <v>43756</v>
       </c>
-      <c r="AC5" s="17" t="e">
+      <c r="AD5" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AE5" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AF5" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="17" t="e">
+      <c r="AG5" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="17" t="e">
-        <f>X5/AD5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH5" s="20" t="e">
+      <c r="AH5" s="17" t="e">
+        <f>Y5/AE5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI5" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI5" s="20" t="e">
+      <c r="AJ5" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ5" s="20" t="e">
+      <c r="AK5" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK5" s="17" t="e">
+      <c r="AL5" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="17">
+      <c r="E6" s="17">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <f t="shared" si="0"/>
         <v>2.4999999999999994E-2</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
         <f t="shared" si="1"/>
         <v>-3.90625E-2</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="P6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="Q6" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="R6" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="17">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="19">
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="19">
         <v>43756</v>
       </c>
-      <c r="AC6" s="17" t="e">
+      <c r="AD6" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="17">
+      <c r="AE6" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AF6" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="17" t="e">
+      <c r="AG6" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="17" t="e">
-        <f>X6/AD6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" s="20" t="e">
+      <c r="AH6" s="17" t="e">
+        <f>Y6/AE6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI6" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI6" s="20" t="e">
+      <c r="AJ6" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ6" s="20" t="e">
+      <c r="AK6" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK6" s="17" t="e">
+      <c r="AL6" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="18">
+      <c r="I7" s="18">
         <f t="shared" si="0"/>
         <v>1.2500000000000011E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="J7" s="17">
         <v>2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3</v>
       </c>
       <c r="K7" s="17">
         <v>3</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="L7" s="17">
+        <v>3</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
         <f t="shared" si="1"/>
         <v>-3.125E-2</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="T7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="U7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17">
-        <v>0</v>
-      </c>
-      <c r="W7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
-      <c r="AB7" s="19">
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="19">
         <v>43756</v>
       </c>
-      <c r="AC7" s="17" t="e">
+      <c r="AD7" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AE7" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AF7" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="17" t="e">
+      <c r="AG7" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="17" t="e">
-        <f>X7/AD7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH7" s="20" t="e">
+      <c r="AH7" s="17" t="e">
+        <f>Y7/AE7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI7" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="20" t="e">
+      <c r="AJ7" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ7" s="20" t="e">
+      <c r="AK7" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK7" s="17" t="e">
+      <c r="AL7" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="22">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22">
-        <v>2</v>
-      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="22">
         <v>2</v>
       </c>
       <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -4114,292 +4143,301 @@
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
-      <c r="AC8" s="22" t="e">
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AE8" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AF8" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="22" t="e">
+      <c r="AG8" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="24" t="e">
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="24" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="24" t="e">
+      <c r="AJ8" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="24" t="e">
+      <c r="AK8" s="24" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="22" t="e">
+      <c r="AL8" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="18">
-        <f t="shared" ref="H9:H41" si="10">(G9-C9)/(85-21)</f>
+      <c r="I9" s="18">
+        <f t="shared" ref="I9:I41" si="10">(H9-D9)/(85-21)</f>
         <v>3.1249999999999972E-2</v>
       </c>
-      <c r="I9" s="17">
+      <c r="J9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" ref="N9:N41" si="11">(M9-I9)/(85-21)</f>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" ref="O9:O41" si="11">(N9-J9)/(85-21)</f>
         <v>-3.125E-2</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="Q9" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="R9" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="T9" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="U9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
-        <v>0</v>
-      </c>
-      <c r="W9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
-      <c r="AC9" s="17" t="e">
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AE9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AF9" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="17" t="e">
+      <c r="AG9" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="17" t="e">
-        <f>X9/AD9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH9" s="20" t="e">
+      <c r="AH9" s="17" t="e">
+        <f>Y9/AE9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI9" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="20" t="e">
+      <c r="AJ9" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="20" t="e">
+      <c r="AK9" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="17" t="e">
+      <c r="AL9" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="13">
+      <c r="I10" s="13">
         <f t="shared" si="10"/>
         <v>6.2499999999999778E-3</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>5</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11">
+      <c r="M10" s="12"/>
+      <c r="N10" s="11">
         <v>5</v>
       </c>
-      <c r="N10" s="13">
+      <c r="O10" s="13">
         <f t="shared" si="11"/>
         <v>3.90625E-2</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="V10" s="11">
+      <c r="W10" s="11">
         <v>1</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="11">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="11">
         <f t="shared" si="2"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AE10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AF10" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AG10" s="11">
         <f t="shared" si="5"/>
         <v>198.12121212121212</v>
       </c>
-      <c r="AG10" s="11" t="e">
-        <f>X10/AD10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="14" t="e">
+      <c r="AH10" s="11" t="e">
+        <f>Y10/AE10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI10" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="14" t="e">
+      <c r="AJ10" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="14" t="e">
+      <c r="AK10" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AL10" s="11">
         <f t="shared" si="9"/>
         <v>0.86649214659685847</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="9">
+      <c r="H11" s="8"/>
+      <c r="I11" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="9">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -4413,182 +4451,188 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="8" t="e">
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AE11" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AF11" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="8" t="e">
+      <c r="AG11" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="25" t="e">
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="25" t="e">
+      <c r="AJ11" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="25" t="e">
+      <c r="AK11" s="25" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="8" t="e">
+      <c r="AL11" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="13">
+      <c r="I12" s="13">
         <f t="shared" si="10"/>
         <v>0.10624999999999998</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>6</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11">
+      <c r="M12" s="12"/>
+      <c r="N12" s="11">
         <v>12</v>
       </c>
-      <c r="N12" s="13">
+      <c r="O12" s="13">
         <f t="shared" si="11"/>
         <v>0.1484375</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="P12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="Q12" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="R12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="12"/>
+      <c r="V12" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V12" s="11">
+      <c r="W12" s="11">
         <v>4</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="Y12" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="11">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="11">
         <f t="shared" si="2"/>
         <v>0.34425</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AE12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AF12" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AG12" s="11">
         <f t="shared" si="5"/>
         <v>810.94553376906322</v>
       </c>
-      <c r="AG12" s="14" t="e">
-        <f>X12/AD12</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH12" s="14" t="e">
+        <f>Y12/AE12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="14" t="e">
+      <c r="AJ12" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="14" t="e">
+      <c r="AK12" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AL12" s="11">
         <f t="shared" si="9"/>
         <v>5.44971098265896</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="9">
+      <c r="H13" s="8"/>
+      <c r="I13" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="9">
+      <c r="N13" s="8"/>
+      <c r="O13" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -4602,640 +4646,658 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="8" t="e">
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AE13" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AF13" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="8" t="e">
+      <c r="AG13" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25" t="e">
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="25" t="e">
+      <c r="AJ13" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="25" t="e">
+      <c r="AK13" s="25" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="8" t="e">
+      <c r="AL13" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="13">
+      <c r="I14" s="13">
         <f t="shared" si="10"/>
         <v>9.0624999999999983E-2</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="11">
+      <c r="K14" s="11">
         <v>8</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>9</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11">
+      <c r="M14" s="12"/>
+      <c r="N14" s="11">
         <v>12</v>
       </c>
-      <c r="N14" s="13">
+      <c r="O14" s="13">
         <f t="shared" si="11"/>
         <v>0.1484375</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="V14" s="11">
+      <c r="W14" s="11">
         <v>6</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="11">
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="11">
         <f t="shared" si="2"/>
         <v>0.28283333333333333</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AE14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AF14" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AG14" s="11">
         <f t="shared" si="5"/>
         <v>1246.4230995875073</v>
       </c>
-      <c r="AG14" s="14" t="e">
-        <f t="shared" ref="AG14:AG21" si="12">X14/AD14</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH14" s="14" t="e">
+        <f t="shared" ref="AH14:AH21" si="12">Y14/AE14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="14" t="e">
+      <c r="AJ14" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="14" t="e">
+      <c r="AK14" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AL14" s="11">
         <f t="shared" si="9"/>
         <v>9.5878962536023078</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>22</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I15" s="13">
         <f t="shared" si="10"/>
         <v>0.14218749999999997</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>2</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>9</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>10</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11">
+      <c r="M15" s="12"/>
+      <c r="N15" s="11">
         <v>12</v>
       </c>
-      <c r="N15" s="13">
+      <c r="O15" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>6</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="V15" s="11">
+      <c r="W15" s="11">
         <v>5</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="11">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="11">
         <f t="shared" si="2"/>
         <v>0.50540000000000007</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AE15" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AF15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AG15" s="11">
         <f t="shared" si="5"/>
         <v>1026.0763751483971</v>
       </c>
-      <c r="AG15" s="14" t="e">
+      <c r="AH15" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH15" s="14" t="e">
+      <c r="AI15" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI15" s="14" t="e">
+      <c r="AJ15" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ15" s="14" t="e">
+      <c r="AK15" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AL15" s="11">
         <f t="shared" si="9"/>
         <v>15.372781065088766</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="13">
+      <c r="I16" s="13">
         <f t="shared" si="10"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="11">
+      <c r="K16" s="11">
         <v>8</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11">
+      <c r="M16" s="12"/>
+      <c r="N16" s="11">
         <v>13</v>
       </c>
-      <c r="N16" s="13">
+      <c r="O16" s="13">
         <f t="shared" si="11"/>
         <v>0.1640625</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="12"/>
+      <c r="T16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="V16" s="11">
+      <c r="W16" s="11">
         <v>5</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-      <c r="AC16" s="11">
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="11">
         <f t="shared" si="2"/>
         <v>0.18280000000000002</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AE16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AF16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AG16" s="11">
         <f t="shared" si="5"/>
         <v>1006.515317286652</v>
       </c>
-      <c r="AG16" s="14" t="e">
+      <c r="AH16" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH16" s="14" t="e">
+      <c r="AI16" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI16" s="14" t="e">
+      <c r="AJ16" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ16" s="14" t="e">
+      <c r="AK16" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AL16" s="11">
         <f t="shared" si="9"/>
         <v>4.4727011494252871</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="13">
+      <c r="I17" s="13">
         <f t="shared" si="10"/>
         <v>9.5312500000000022E-2</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="11">
+      <c r="K17" s="11">
         <v>9</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>11</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12"/>
+      <c r="N17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N17" s="13">
+      <c r="O17" s="13">
         <f t="shared" si="11"/>
         <v>0.1640625</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="11">
+      <c r="W17" s="11">
         <v>5</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="Y17" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Z17" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="11">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="11">
         <f t="shared" si="2"/>
         <v>0.46440000000000003</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AE17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AF17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AG17" s="11">
         <f t="shared" si="5"/>
         <v>933.09431524547801</v>
       </c>
-      <c r="AG17" s="14" t="e">
+      <c r="AH17" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH17" s="14" t="e">
+      <c r="AI17" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI17" s="14" t="e">
+      <c r="AJ17" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ17" s="14" t="e">
+      <c r="AK17" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AL17" s="11">
         <f t="shared" si="9"/>
         <v>33.206572769953034</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="13">
+      <c r="I18" s="13">
         <f t="shared" si="10"/>
         <v>9.2187499999999978E-2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>2</v>
       </c>
-      <c r="J18" s="11">
+      <c r="K18" s="11">
         <v>4</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>9</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="11">
+      <c r="M18" s="12"/>
+      <c r="N18" s="11">
         <v>1</v>
       </c>
-      <c r="N18" s="13">
+      <c r="O18" s="13">
         <f t="shared" si="11"/>
         <v>-1.5625E-2</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="P18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="Q18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="R18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="V18" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="V18" s="11">
+      <c r="W18" s="11">
         <v>4</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="11">
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="11">
         <f t="shared" si="2"/>
         <v>0.27274999999999999</v>
       </c>
-      <c r="AD18" s="11">
+      <c r="AE18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AF18" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AG18" s="11">
         <f t="shared" si="5"/>
         <v>940.98258478460139</v>
       </c>
-      <c r="AG18" s="14" t="e">
+      <c r="AH18" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH18" s="14" t="e">
+      <c r="AI18" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI18" s="14" t="e">
+      <c r="AJ18" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ18" s="14" t="e">
+      <c r="AK18" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AL18" s="11">
         <f t="shared" si="9"/>
         <v>3.8241869918699178</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="9">
+      <c r="H19" s="8"/>
+      <c r="I19" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="9">
+      <c r="N19" s="8"/>
+      <c r="O19" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -5249,299 +5311,308 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="8" t="e">
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AE19" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AF19" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="8" t="e">
+      <c r="AG19" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG19" s="8" t="e">
+      <c r="AH19" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH19" s="25" t="e">
+      <c r="AI19" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI19" s="25" t="e">
+      <c r="AJ19" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ19" s="25" t="e">
+      <c r="AK19" s="25" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK19" s="8" t="e">
+      <c r="AL19" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="13">
+      <c r="I20" s="13">
         <f t="shared" si="10"/>
         <v>0.10781250000000001</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="11">
+      <c r="K20" s="11">
         <v>7</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>9</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N20" s="13">
+      <c r="O20" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="Q20" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="R20" s="11">
         <v>19</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="S20" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="V20" s="11">
+      <c r="W20" s="11">
         <v>5</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="Y20" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="11">
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="11">
         <f t="shared" si="2"/>
         <v>0.32979999999999998</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AE20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AG20" s="11">
         <f t="shared" si="5"/>
         <v>1127.3620375985445</v>
       </c>
-      <c r="AG20" s="14" t="e">
+      <c r="AH20" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH20" s="14" t="e">
+      <c r="AI20" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI20" s="14" t="e">
+      <c r="AJ20" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ20" s="14" t="e">
+      <c r="AK20" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AL20" s="11">
         <f t="shared" si="9"/>
         <v>8.8732970027247973</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I21" s="13">
         <f t="shared" si="10"/>
         <v>0.14999999999999997</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="11">
+      <c r="K21" s="11">
         <v>8</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N21" s="13">
+      <c r="O21" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="P21" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="Q21" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="R21" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="R21" s="11">
+      <c r="S21" s="11">
         <v>9</v>
       </c>
-      <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="12"/>
+      <c r="V21" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="V21" s="11">
+      <c r="W21" s="11">
         <v>6</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="Y21" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="11">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="11">
         <f t="shared" si="2"/>
         <v>0.29333333333333333</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AE21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AF21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AG21" s="11">
         <f t="shared" si="5"/>
         <v>1426.0875000000001</v>
       </c>
-      <c r="AG21" s="14" t="e">
+      <c r="AH21" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH21" s="14" t="e">
+      <c r="AI21" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI21" s="14" t="e">
+      <c r="AJ21" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ21" s="14" t="e">
+      <c r="AK21" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AL21" s="11">
         <f t="shared" si="9"/>
         <v>7.5223880597014938</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="9">
+      <c r="H22" s="8"/>
+      <c r="I22" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="9">
+      <c r="N22" s="8"/>
+      <c r="O22" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
@@ -5553,854 +5624,878 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="8" t="s">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8" t="e">
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="8">
+      <c r="AE22" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AF22" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="8" t="e">
+      <c r="AG22" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25" t="e">
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI22" s="25" t="e">
+      <c r="AJ22" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ22" s="25" t="e">
+      <c r="AK22" s="25" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK22" s="8" t="e">
+      <c r="AL22" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="18">
+      <c r="I23" s="18">
         <f t="shared" si="10"/>
         <v>3.4375000000000017E-2</v>
       </c>
-      <c r="I23" s="17">
+      <c r="J23" s="17">
         <v>2</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="17">
         <v>5</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="L23" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="18">
         <f t="shared" si="11"/>
         <v>2.34375E-2</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="P23" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="Q23" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="R23" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="S23" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
-      <c r="V23" s="17">
-        <v>0</v>
-      </c>
-      <c r="W23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="17" t="s">
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AB23" s="19">
+      <c r="AC23" s="19">
         <v>43747</v>
       </c>
-      <c r="AC23" s="17" t="e">
+      <c r="AD23" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="17">
+      <c r="AE23" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AF23" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="17" t="e">
+      <c r="AG23" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="20" t="e">
-        <f t="shared" ref="AG23:AG29" si="13">X23/AD23</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH23" s="20" t="e">
+        <f t="shared" ref="AH23:AH29" si="13">Y23/AE23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI23" s="20" t="e">
+      <c r="AJ23" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ23" s="20" t="e">
+      <c r="AK23" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK23" s="17" t="e">
+      <c r="AL23" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="13">
+      <c r="I24" s="13">
         <f t="shared" si="10"/>
         <v>2.6562500000000017E-2</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>2</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>5</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>8</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12"/>
+      <c r="N24" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="N24" s="13">
+      <c r="O24" s="13">
         <f t="shared" si="11"/>
         <v>3.90625E-2</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>13</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="S24" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="U24" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="V24" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="V24" s="11">
+      <c r="W24" s="11">
         <v>1</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="15">
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="15">
         <v>43747</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AD24" s="11">
         <f t="shared" si="2"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AE24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AF24" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AG24" s="11">
         <f t="shared" si="5"/>
         <v>150.68965517241378</v>
       </c>
-      <c r="AG24" s="14" t="e">
+      <c r="AH24" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH24" s="14" t="e">
+      <c r="AI24" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI24" s="14" t="e">
+      <c r="AJ24" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ24" s="14" t="e">
+      <c r="AK24" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AL24" s="11">
         <f t="shared" si="9"/>
         <v>0.7735849056603773</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="11">
+      <c r="D25" s="11">
         <v>15</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="H25" s="13">
+      <c r="I25" s="13">
         <f t="shared" si="10"/>
         <v>3.4374999999999989E-2</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="11">
+      <c r="K25" s="11">
         <v>4</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="N25" s="13">
+      <c r="O25" s="13">
         <f t="shared" si="11"/>
         <v>3.125E-2</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="P25" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="Q25" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="R25" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="S25" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="T25" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="U25" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="V25" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="V25" s="11">
+      <c r="W25" s="11">
         <v>2</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="X25" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="X25" s="11" t="s">
+      <c r="Y25" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Z25" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="11">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="11">
         <f t="shared" si="2"/>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AE25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AF25" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AG25" s="11">
         <f t="shared" si="5"/>
         <v>350.86187845303868</v>
       </c>
-      <c r="AG25" s="14" t="e">
+      <c r="AH25" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH25" s="14" t="e">
+      <c r="AI25" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI25" s="14" t="e">
+      <c r="AJ25" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ25" s="14" t="e">
+      <c r="AK25" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AL25" s="11">
         <f t="shared" si="9"/>
         <v>0.85895627644569805</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>466</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="D26" s="17">
-        <v>17</v>
       </c>
       <c r="E26" s="17">
         <v>17</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="17">
+        <v>17</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="H26" s="18">
+      <c r="I26" s="18">
         <f t="shared" si="10"/>
         <v>2.8124999999999983E-2</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="17">
+      <c r="K26" s="17">
         <v>6</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17">
+      <c r="M26" s="17"/>
+      <c r="N26" s="17">
         <v>5</v>
       </c>
-      <c r="N26" s="18">
+      <c r="O26" s="18">
         <f t="shared" si="11"/>
         <v>3.90625E-2</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="P26" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="Q26" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="R26" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="S26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="S26" s="17" t="s">
+      <c r="T26" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="U26" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17">
-        <v>0</v>
-      </c>
-      <c r="W26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
-      <c r="AB26" s="19">
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="19">
         <v>43747</v>
       </c>
-      <c r="AC26" s="17" t="e">
+      <c r="AD26" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="17">
+      <c r="AE26" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="17">
+      <c r="AF26" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="17" t="e">
+      <c r="AG26" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="20" t="e">
+      <c r="AH26" s="20" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH26" s="20" t="e">
+      <c r="AI26" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI26" s="20" t="e">
+      <c r="AJ26" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ26" s="20" t="e">
+      <c r="AK26" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK26" s="17" t="e">
+      <c r="AL26" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>17</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="H27" s="13">
+      <c r="I27" s="13">
         <f t="shared" si="10"/>
         <v>1.2500000000000011E-2</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>5</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11">
+      <c r="M27" s="12"/>
+      <c r="N27" s="11">
         <v>5</v>
       </c>
-      <c r="N27" s="13">
+      <c r="O27" s="13">
         <f t="shared" si="11"/>
         <v>3.90625E-2</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="P27" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="Q27" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="T27" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="U27" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="V27" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="V27" s="11">
+      <c r="W27" s="11">
         <v>1</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="Y27" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Z27" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="11">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="11">
         <f t="shared" si="2"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AE27" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AF27" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AG27" s="11">
         <f t="shared" si="5"/>
         <v>98.107142857142847</v>
       </c>
-      <c r="AG27" s="14" t="e">
+      <c r="AH27" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH27" s="14" t="e">
+      <c r="AI27" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI27" s="14" t="e">
+      <c r="AJ27" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ27" s="14" t="e">
+      <c r="AK27" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AL27" s="11">
         <f t="shared" si="9"/>
         <v>0.77876106194690253</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>317</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H28" s="18">
+      <c r="I28" s="18">
         <f t="shared" si="10"/>
         <v>9.3749999999999944E-3</v>
       </c>
-      <c r="I28" s="17">
+      <c r="J28" s="17">
         <v>2</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="K28" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>5</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="17"/>
+      <c r="N28" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="18">
+      <c r="O28" s="18">
         <f t="shared" si="11"/>
         <v>2.34375E-2</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="P28" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="Q28" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="R28" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="S28" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
-      <c r="V28" s="17">
-        <v>0</v>
-      </c>
-      <c r="W28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17">
+        <v>0</v>
+      </c>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="17" t="s">
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AB28" s="19">
+      <c r="AC28" s="19">
         <v>43747</v>
       </c>
-      <c r="AC28" s="17" t="e">
+      <c r="AD28" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AE28" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AF28" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="17" t="e">
+      <c r="AG28" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="20" t="e">
+      <c r="AH28" s="20" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH28" s="20" t="e">
+      <c r="AI28" s="20" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI28" s="20" t="e">
+      <c r="AJ28" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ28" s="20" t="e">
+      <c r="AK28" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK28" s="17" t="e">
+      <c r="AL28" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="11">
+      <c r="D29" s="11">
         <v>16</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="H29" s="13">
+      <c r="I29" s="13">
         <f t="shared" si="10"/>
         <v>2.1874999999999978E-2</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="J29" s="11">
-        <v>6</v>
       </c>
       <c r="K29" s="11">
         <v>6</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11" t="s">
+      <c r="L29" s="11">
+        <v>6</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="N29" s="13">
+      <c r="O29" s="13">
         <f t="shared" si="11"/>
         <v>0.109375</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="P29" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="Q29" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="R29" s="11">
         <v>17</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="S29" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="T29" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="U29" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="U29" s="11" t="s">
+      <c r="V29" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="V29" s="11">
+      <c r="W29" s="11">
         <v>2</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="X29" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="Y29" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="Z29" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
-      <c r="AC29" s="11">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="11">
         <f t="shared" si="2"/>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AE29" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="11">
+      <c r="AF29" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AG29" s="11">
         <f t="shared" si="5"/>
         <v>393.36774193548388</v>
       </c>
-      <c r="AG29" s="14" t="e">
+      <c r="AH29" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH29" s="14" t="e">
+      <c r="AI29" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI29" s="14" t="e">
+      <c r="AJ29" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ29" s="14" t="e">
+      <c r="AK29" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AL29" s="11">
         <f t="shared" si="9"/>
         <v>0.75106685633001435</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="9">
+      <c r="H30" s="8"/>
+      <c r="I30" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="9">
+      <c r="N30" s="8"/>
+      <c r="O30" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -6412,1309 +6507,1343 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="8" t="s">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8" t="e">
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="8">
+      <c r="AE30" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="8">
+      <c r="AF30" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="8" t="e">
+      <c r="AG30" s="8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25" t="e">
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI30" s="25" t="e">
+      <c r="AJ30" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="25" t="e">
+      <c r="AK30" s="25" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK30" s="8" t="e">
+      <c r="AL30" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="13">
+      <c r="I31" s="13">
         <f t="shared" si="10"/>
         <v>2.34375E-2</v>
       </c>
-      <c r="I31" s="11">
+      <c r="J31" s="11">
         <v>2</v>
       </c>
-      <c r="J31" s="11">
+      <c r="K31" s="11">
         <v>3</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11">
+      <c r="M31" s="12"/>
+      <c r="N31" s="11">
         <v>4</v>
       </c>
-      <c r="N31" s="13">
+      <c r="O31" s="13">
         <f t="shared" si="11"/>
         <v>3.125E-2</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="P31" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="Q31" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="R31" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="S31" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="T31" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="U31" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="U31" s="11" t="s">
+      <c r="V31" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="V31" s="11">
+      <c r="W31" s="11">
         <v>1</v>
       </c>
-      <c r="W31" s="11" t="s">
+      <c r="X31" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="Y31" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Z31" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
-      <c r="AC31" s="11">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="11">
         <f t="shared" si="2"/>
         <v>6.3E-2</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AE31" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="11">
+      <c r="AF31" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="11">
+      <c r="AG31" s="11">
         <f t="shared" si="5"/>
         <v>182.38095238095238</v>
       </c>
-      <c r="AG31" s="14" t="e">
-        <f t="shared" ref="AG31:AG41" si="14">X31/AD31</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH31" s="14" t="e">
+        <f t="shared" ref="AH31:AH41" si="14">Y31/AE31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI31" s="14" t="e">
+      <c r="AJ31" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ31" s="14" t="e">
+      <c r="AK31" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK31" s="11">
+      <c r="AL31" s="11">
         <f t="shared" si="9"/>
         <v>0.57534246575342474</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H32" s="13">
+      <c r="I32" s="13">
         <f t="shared" si="10"/>
         <v>8.4375000000000006E-2</v>
       </c>
-      <c r="I32" s="11">
+      <c r="J32" s="11">
         <v>2</v>
       </c>
-      <c r="J32" s="11">
+      <c r="K32" s="11">
         <v>8</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <v>11</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="12"/>
+      <c r="N32" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N32" s="13">
+      <c r="O32" s="13">
         <f t="shared" si="11"/>
         <v>0.1640625</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="P32" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="Q32" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="R32" s="11">
         <v>16</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="S32" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S32" s="12"/>
       <c r="T32" s="12"/>
-      <c r="U32" s="11" t="s">
+      <c r="U32" s="12"/>
+      <c r="V32" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="V32" s="11">
+      <c r="W32" s="11">
         <v>5</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="X32" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="Y32" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="Z32" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="11" t="s">
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AB32" s="15">
+      <c r="AC32" s="15">
         <v>43747</v>
       </c>
-      <c r="AC32" s="11">
+      <c r="AD32" s="11">
         <f t="shared" si="2"/>
         <v>0.37519999999999998</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AE32" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="11">
+      <c r="AF32" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AG32" s="11">
         <f t="shared" si="5"/>
         <v>912.89445628997862</v>
       </c>
-      <c r="AG32" s="14" t="e">
+      <c r="AH32" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH32" s="14" t="e">
+      <c r="AI32" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI32" s="14" t="e">
+      <c r="AJ32" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ32" s="14" t="e">
+      <c r="AK32" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK32" s="11">
+      <c r="AL32" s="11">
         <f t="shared" si="9"/>
         <v>22.500000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="11">
+      <c r="E33" s="11">
         <v>22</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="H33" s="13">
+      <c r="I33" s="13">
         <f t="shared" si="10"/>
         <v>0.13593749999999999</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="11">
         <v>2</v>
       </c>
-      <c r="J33" s="11">
+      <c r="K33" s="11">
         <v>9</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <v>12</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N33" s="13">
+      <c r="O33" s="13">
         <f t="shared" si="11"/>
         <v>0.1640625</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="P33" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="Q33" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="R33" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="S33" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="T33" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="U33" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="U33" s="11" t="s">
+      <c r="V33" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="V33" s="11">
+      <c r="W33" s="11">
         <v>6</v>
       </c>
-      <c r="W33" s="11" t="s">
+      <c r="X33" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="Y33" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="Y33" s="14" t="s">
+      <c r="Z33" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="15">
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="15">
         <v>43747</v>
       </c>
-      <c r="AC33" s="11">
+      <c r="AD33" s="11">
         <f t="shared" si="2"/>
         <v>0.27716666666666667</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AE33" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="11">
+      <c r="AF33" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
+      <c r="AG33" s="11">
         <f t="shared" si="5"/>
         <v>1369.0932050511124</v>
       </c>
-      <c r="AG33" s="14" t="e">
+      <c r="AH33" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH33" s="14" t="e">
+      <c r="AI33" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI33" s="14" t="e">
+      <c r="AJ33" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ33" s="14" t="e">
+      <c r="AK33" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK33" s="11">
+      <c r="AL33" s="11">
         <f t="shared" si="9"/>
         <v>13.638036809815949</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="H34" s="13">
+      <c r="I34" s="13">
         <f t="shared" si="10"/>
         <v>9.3750000000000028E-2</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J34" s="11">
         <v>2</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="L34" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="11">
+      <c r="M34" s="12"/>
+      <c r="N34" s="11">
         <v>13</v>
       </c>
-      <c r="N34" s="13">
+      <c r="O34" s="13">
         <f t="shared" si="11"/>
         <v>0.171875</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="P34" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="Q34" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="R34" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="S34" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="S34" s="11" t="s">
+      <c r="T34" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="U34" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="V34" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="V34" s="11">
+      <c r="W34" s="11">
         <v>6</v>
       </c>
-      <c r="W34" s="11" t="s">
+      <c r="X34" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="X34" s="11" t="s">
+      <c r="Y34" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Z34" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-      <c r="AC34" s="11">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="11">
         <f t="shared" si="2"/>
         <v>0.40666666666666668</v>
       </c>
-      <c r="AD34" s="11">
+      <c r="AE34" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="11">
+      <c r="AF34" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AG34" s="11">
         <f t="shared" si="5"/>
         <v>1198.5786885245902</v>
       </c>
-      <c r="AG34" s="14" t="e">
+      <c r="AH34" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH34" s="14" t="e">
+      <c r="AI34" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI34" s="14" t="e">
+      <c r="AJ34" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ34" s="14" t="e">
+      <c r="AK34" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK34" s="11">
+      <c r="AL34" s="11">
         <f t="shared" si="9"/>
         <v>-44.320000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="H35" s="13">
+      <c r="I35" s="13">
         <f t="shared" si="10"/>
         <v>0.15625000000000003</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J35" s="11">
+      <c r="K35" s="11">
         <v>9</v>
       </c>
-      <c r="K35" s="11">
+      <c r="L35" s="11">
         <v>11</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11">
+      <c r="M35" s="12"/>
+      <c r="N35" s="11">
         <v>12</v>
       </c>
-      <c r="N35" s="13">
+      <c r="O35" s="13">
         <f t="shared" si="11"/>
         <v>0.1484375</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="P35" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="Q35" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="R35" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="S35" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="S35" s="11" t="s">
+      <c r="T35" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="U35" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="V35" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="V35" s="11">
+      <c r="W35" s="11">
         <v>5</v>
       </c>
-      <c r="W35" s="11" t="s">
+      <c r="X35" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="X35" s="11" t="s">
+      <c r="Y35" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="Y35" s="14" t="s">
+      <c r="Z35" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="15">
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="15">
         <v>43747</v>
       </c>
-      <c r="AC35" s="11">
+      <c r="AD35" s="11">
         <f t="shared" si="2"/>
         <v>0.48159999999999997</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AE35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="11">
+      <c r="AF35" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="11">
+      <c r="AG35" s="11">
         <f t="shared" si="5"/>
         <v>1032.6536544850499</v>
       </c>
-      <c r="AG35" s="14" t="e">
+      <c r="AH35" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH35" s="14" t="e">
+      <c r="AI35" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI35" s="14" t="e">
+      <c r="AJ35" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ35" s="14" t="e">
+      <c r="AK35" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK35" s="11">
+      <c r="AL35" s="11">
         <f t="shared" si="9"/>
         <v>21.028688524590144</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="11">
+      <c r="D36" s="11">
         <v>14</v>
       </c>
-      <c r="D36" s="11">
+      <c r="E36" s="11">
         <v>21</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="13">
+      <c r="I36" s="13">
         <f t="shared" si="10"/>
         <v>0.13437500000000002</v>
       </c>
-      <c r="I36" s="11">
+      <c r="J36" s="11">
         <v>2</v>
       </c>
-      <c r="J36" s="11">
+      <c r="K36" s="11">
         <v>8</v>
       </c>
-      <c r="K36" s="11">
+      <c r="L36" s="11">
         <v>11</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="11">
+      <c r="M36" s="12"/>
+      <c r="N36" s="11">
         <v>12</v>
       </c>
-      <c r="N36" s="13">
+      <c r="O36" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="P36" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="Q36" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="R36" s="11">
         <v>16</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="S36" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="12"/>
+      <c r="V36" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="V36" s="11">
+      <c r="W36" s="11">
         <v>6</v>
       </c>
-      <c r="W36" s="11" t="s">
+      <c r="X36" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="X36" s="11" t="s">
+      <c r="Y36" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="Y36" s="14" t="s">
+      <c r="Z36" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="11" t="s">
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AB36" s="15">
+      <c r="AC36" s="15">
         <v>43747</v>
       </c>
-      <c r="AC36" s="11">
+      <c r="AD36" s="11">
         <f t="shared" si="2"/>
         <v>0.36200000000000004</v>
       </c>
-      <c r="AD36" s="11">
+      <c r="AE36" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="11">
+      <c r="AF36" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AG36" s="11">
         <f t="shared" si="5"/>
         <v>1091.3674033149171</v>
       </c>
-      <c r="AG36" s="14" t="e">
+      <c r="AH36" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH36" s="14" t="e">
+      <c r="AI36" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI36" s="14" t="e">
+      <c r="AJ36" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ36" s="14" t="e">
+      <c r="AK36" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AL36" s="11">
         <f t="shared" si="9"/>
         <v>94.098591549296117</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D37" s="11">
+      <c r="E37" s="11">
         <v>20</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="12"/>
+      <c r="H37" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="13">
+      <c r="I37" s="13">
         <f t="shared" si="10"/>
         <v>0.12968749999999998</v>
       </c>
-      <c r="I37" s="11">
+      <c r="J37" s="11">
         <v>2</v>
       </c>
-      <c r="J37" s="11">
+      <c r="K37" s="11">
         <v>8</v>
       </c>
-      <c r="K37" s="11">
+      <c r="L37" s="11">
         <v>11</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="11">
+      <c r="M37" s="12"/>
+      <c r="N37" s="11">
         <v>13</v>
       </c>
-      <c r="N37" s="13">
+      <c r="O37" s="13">
         <f t="shared" si="11"/>
         <v>0.171875</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="P37" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="Q37" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="R37" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>253</v>
       </c>
       <c r="T37" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="U37" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="V37" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="V37" s="11">
+      <c r="W37" s="11">
         <v>5</v>
       </c>
-      <c r="W37" s="11" t="s">
+      <c r="X37" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="X37" s="11" t="s">
+      <c r="Y37" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="Y37" s="14" t="s">
+      <c r="Z37" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
-      <c r="AC37" s="11">
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="11">
         <f t="shared" si="2"/>
         <v>0.49280000000000002</v>
       </c>
-      <c r="AD37" s="11">
+      <c r="AE37" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="11">
+      <c r="AF37" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AG37" s="11">
         <f t="shared" si="5"/>
         <v>851.30275974025972</v>
       </c>
-      <c r="AG37" s="14" t="e">
+      <c r="AH37" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH37" s="14" t="e">
+      <c r="AI37" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI37" s="14" t="e">
+      <c r="AJ37" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ37" s="14" t="e">
+      <c r="AK37" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK37" s="11">
+      <c r="AL37" s="11">
         <f t="shared" si="9"/>
         <v>10.379403794037941</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H38" s="13">
+      <c r="I38" s="13">
         <f t="shared" si="10"/>
         <v>0.12968750000000001</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="J38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="11">
+      <c r="K38" s="11">
         <v>8</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L38" s="11">
         <v>11</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N38" s="13">
+      <c r="O38" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="P38" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="Q38" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="R38" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="S38" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="T38" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="U38" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="V38" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="V38" s="11">
+      <c r="W38" s="11">
         <v>5</v>
       </c>
-      <c r="W38" s="11" t="s">
+      <c r="X38" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="X38" s="11" t="s">
+      <c r="Y38" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="Y38" s="14" t="s">
+      <c r="Z38" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
-      <c r="AC38" s="11">
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="11">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="AD38" s="11">
+      <c r="AE38" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="11">
+      <c r="AF38" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AG38" s="11">
         <f t="shared" si="5"/>
         <v>873.66285714285709</v>
       </c>
-      <c r="AG38" s="14" t="e">
+      <c r="AH38" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH38" s="14" t="e">
+      <c r="AI38" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI38" s="14" t="e">
+      <c r="AJ38" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ38" s="14" t="e">
+      <c r="AK38" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AL38" s="11">
         <f t="shared" si="9"/>
         <v>15.762402088772845</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="H39" s="13">
+      <c r="I39" s="13">
         <f t="shared" si="10"/>
         <v>8.2812500000000011E-2</v>
       </c>
-      <c r="I39" s="11">
+      <c r="J39" s="11">
         <v>2</v>
       </c>
-      <c r="J39" s="11">
+      <c r="K39" s="11">
         <v>8</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="11">
+      <c r="M39" s="12"/>
+      <c r="N39" s="11">
         <v>12</v>
       </c>
-      <c r="N39" s="13">
+      <c r="O39" s="13">
         <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="P39" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="Q39" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="R39" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="S39" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="S39" s="12"/>
       <c r="T39" s="12"/>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="12"/>
+      <c r="V39" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="V39" s="11">
+      <c r="W39" s="11">
         <v>2</v>
       </c>
-      <c r="W39" s="11" t="s">
+      <c r="X39" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="X39" s="11" t="s">
+      <c r="Y39" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="Z39" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="11" t="s">
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AB39" s="15">
+      <c r="AC39" s="15">
         <v>43747</v>
       </c>
-      <c r="AC39" s="11">
+      <c r="AD39" s="11">
         <f t="shared" si="2"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AE39" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AF39" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AG39" s="11">
         <f t="shared" si="5"/>
         <v>400.34782608695656</v>
       </c>
-      <c r="AG39" s="14" t="e">
+      <c r="AH39" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH39" s="14" t="e">
+      <c r="AI39" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI39" s="14" t="e">
+      <c r="AJ39" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ39" s="14" t="e">
+      <c r="AK39" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK39" s="11">
+      <c r="AL39" s="11">
         <f t="shared" si="9"/>
         <v>2.1812865497076022</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="H40" s="13">
+      <c r="I40" s="13">
         <f t="shared" si="10"/>
         <v>0.10625000000000001</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="11">
+      <c r="M40" s="12"/>
+      <c r="N40" s="11">
         <v>13</v>
       </c>
-      <c r="N40" s="13">
+      <c r="O40" s="13">
         <f t="shared" si="11"/>
         <v>0.1640625</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="P40" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="Q40" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="R40" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="S40" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="S40" s="11" t="s">
+      <c r="T40" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="U40" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="U40" s="11" t="s">
+      <c r="V40" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>4</v>
       </c>
-      <c r="W40" s="11" t="s">
+      <c r="X40" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="X40" s="11" t="s">
+      <c r="Y40" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="Y40" s="14" t="s">
+      <c r="Z40" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
-      <c r="AC40" s="11">
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="11">
         <f t="shared" si="2"/>
         <v>0.48949999999999999</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AE40" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="11">
+      <c r="AF40" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AG40" s="11">
         <f t="shared" si="5"/>
         <v>865.50561797752812</v>
       </c>
-      <c r="AG40" s="14" t="e">
+      <c r="AH40" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH40" s="14" t="e">
+      <c r="AI40" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI40" s="14" t="e">
+      <c r="AJ40" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ40" s="14" t="e">
+      <c r="AK40" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK40" s="11">
+      <c r="AL40" s="11">
         <f t="shared" si="9"/>
         <v>5.6649964209019323</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>467</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="E41" s="11">
+      <c r="F41" s="11">
         <v>20</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="H41" s="13">
+      <c r="I41" s="13">
         <f t="shared" si="10"/>
         <v>0.13437500000000002</v>
       </c>
-      <c r="I41" s="11">
+      <c r="J41" s="11">
         <v>2</v>
       </c>
-      <c r="J41" s="11">
+      <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="11">
+      <c r="M41" s="12"/>
+      <c r="N41" s="11">
         <v>13</v>
       </c>
-      <c r="N41" s="13">
+      <c r="O41" s="13">
         <f t="shared" si="11"/>
         <v>0.171875</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="P41" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="Q41" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="R41" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="S41" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="S41" s="11" t="s">
+      <c r="T41" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="U41" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="U41" s="11" t="s">
+      <c r="V41" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="V41" s="11">
+      <c r="W41" s="11">
         <v>7</v>
       </c>
-      <c r="W41" s="11" t="s">
+      <c r="X41" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="X41" s="11" t="s">
+      <c r="Y41" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="Y41" s="14" t="s">
+      <c r="Z41" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
-      <c r="AC41" s="11">
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="11">
         <f t="shared" si="2"/>
         <v>0.34342857142857142</v>
       </c>
-      <c r="AD41" s="11">
+      <c r="AE41" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="11">
+      <c r="AF41" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF41" s="11">
+      <c r="AG41" s="11">
         <f t="shared" si="5"/>
         <v>1612.6468386023294</v>
       </c>
-      <c r="AG41" s="14" t="e">
+      <c r="AH41" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH41" s="14" t="e">
+      <c r="AI41" s="14" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI41" s="14" t="e">
+      <c r="AJ41" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ41" s="14" t="e">
+      <c r="AK41" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK41" s="11">
+      <c r="AL41" s="11">
         <f t="shared" si="9"/>
         <v>-80.109374999999929</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
